--- a/bin/resources/Array_Diagram.xlsx
+++ b/bin/resources/Array_Diagram.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suman\eclipse-workspace\YhillsJavaBactch2\src\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C44275-D5CE-42FF-83B4-36182331986A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -43,40 +52,44 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color theme="5"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
+      <sz val="10"/>
       <color theme="5"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -87,7 +100,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -187,20 +200,12 @@
     </fill>
   </fills>
   <borders count="5">
-    <border/>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -212,95 +217,109 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="29">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="7" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="8" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="9" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="10" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="11" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="12" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="13" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="14" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="15" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="16" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="6" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="17" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="3" fillId="9" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="10" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -490,20 +509,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
@@ -511,124 +535,124 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I2" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J2" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L2" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M2" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B3" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C3" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E3" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I3" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J3" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M3" s="5">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
@@ -638,9 +662,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -653,16 +677,16 @@
         <v>6</v>
       </c>
       <c r="J12" s="18">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="19"/>
       <c r="L12" s="18">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B13" s="20"/>
       <c r="C13" s="20"/>
@@ -672,149 +696,150 @@
         <v>7</v>
       </c>
       <c r="I13" s="18">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J13" s="21"/>
       <c r="K13" s="7"/>
       <c r="L13" s="18">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="I14" s="22"/>
       <c r="J14" s="22"/>
       <c r="K14" s="7"/>
       <c r="L14" s="22"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B17" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C17" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E17" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="23"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="24"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="E21" s="24"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="25"/>
-      <c r="D22" s="24"/>
-    </row>
-    <row r="23">
+      <c r="D22" s="27"/>
+      <c r="E22" s="28"/>
+    </row>
+    <row r="23" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
       <c r="D23" s="26"/>
       <c r="E23" s="26"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="6">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B29" s="16"/>
       <c r="C29" s="24"/>
       <c r="D29" s="24"/>
       <c r="E29" s="24"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="6">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="20"/>
@@ -825,6 +850,6 @@
   <mergeCells count="1">
     <mergeCell ref="D22:E22"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>